--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_15-08/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_15-08/curvature_data.xlsx
@@ -379,170 +379,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>54545.859071</v>
+        <v>54499.127068</v>
       </c>
       <c r="B2">
-        <v>9.4565347152e-05</v>
+        <v>-2.7601247787e-05</v>
       </c>
       <c r="C2">
-        <v>-0.00027521533255</v>
+        <v>-2.4679452886e-05</v>
       </c>
       <c r="D2">
-        <v>-0.00037531970792</v>
+        <v>-1.602155683e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>54659.323076</v>
+        <v>54510.591069</v>
       </c>
       <c r="B3">
-        <v>8.4944580228e-05</v>
+        <v>7.508388143499999e-05</v>
       </c>
       <c r="C3">
-        <v>-0.00012787065632</v>
+        <v>-5.1429427782e-05</v>
       </c>
       <c r="D3">
-        <v>-0.00020180424853</v>
+        <v>-0.00012696386242</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>54685.255077</v>
+        <v>54522.45907</v>
       </c>
       <c r="B4">
-        <v>3.5967868687e-05</v>
+        <v>9.4902169911e-05</v>
       </c>
       <c r="C4">
-        <v>9.605483696399999e-06</v>
+        <v>-0.00012528920824</v>
       </c>
       <c r="D4">
-        <v>-4.5343526965e-05</v>
+        <v>-0.00020841102275</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>54589.991073</v>
+        <v>54534.79107</v>
       </c>
       <c r="B5">
-        <v>2.5599990446e-05</v>
+        <v>0.0001555138</v>
       </c>
       <c r="C5">
-        <v>-0.00054002604793</v>
+        <v>-0.0002028523</v>
       </c>
       <c r="D5">
-        <v>-0.00073491599972</v>
+        <v>-0.0002811301</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>54510.591069</v>
+        <v>54545.859071</v>
       </c>
       <c r="B6">
-        <v>7.508388143499999e-05</v>
+        <v>9.4565347152e-05</v>
       </c>
       <c r="C6">
-        <v>-5.1429427782e-05</v>
+        <v>-0.00027521533255</v>
       </c>
       <c r="D6">
-        <v>-0.00012696386242</v>
+        <v>-0.00037531970792</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>54671.855077</v>
+        <v>54556.459071</v>
       </c>
       <c r="B7">
-        <v>5.0786623362e-05</v>
+        <v>9.2419264802e-05</v>
       </c>
       <c r="C7">
-        <v>-5.8760878125e-05</v>
+        <v>-0.000340857494</v>
       </c>
       <c r="D7">
-        <v>-0.00011198920517</v>
+        <v>-0.00046506755519</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>54534.79107</v>
+        <v>54568.059072</v>
       </c>
       <c r="B8">
-        <v>0.0001555138</v>
+        <v>8.7909925411e-05</v>
       </c>
       <c r="C8">
-        <v>-0.0002028523</v>
+        <v>-0.00039963849419</v>
       </c>
       <c r="D8">
-        <v>-0.0002811301</v>
+        <v>-0.00056093411426</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>54499.127068</v>
+        <v>54579.991072</v>
       </c>
       <c r="B9">
-        <v>-2.7601247787e-05</v>
+        <v>4.4421922681e-05</v>
       </c>
       <c r="C9">
-        <v>-2.4679452886e-05</v>
+        <v>-0.00047123776018</v>
       </c>
       <c r="D9">
-        <v>-1.602155683e-05</v>
+        <v>-0.00064873339138</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>54579.991072</v>
+        <v>54589.991073</v>
       </c>
       <c r="B10">
-        <v>4.4421922681e-05</v>
+        <v>2.5599990446e-05</v>
       </c>
       <c r="C10">
-        <v>-0.00047123776018</v>
+        <v>-0.00054002604793</v>
       </c>
       <c r="D10">
-        <v>-0.00064873339138</v>
+        <v>-0.00073491599972</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>54568.059072</v>
+        <v>54601.855073</v>
       </c>
       <c r="B11">
-        <v>8.7909925411e-05</v>
+        <v>3.4736507908e-05</v>
       </c>
       <c r="C11">
-        <v>-0.00039963849419</v>
+        <v>-0.0004775142085</v>
       </c>
       <c r="D11">
-        <v>-0.00056093411426</v>
+        <v>-0.00064503713154</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>54601.855073</v>
+        <v>54611.723074</v>
       </c>
       <c r="B12">
-        <v>3.4736507908e-05</v>
+        <v>8.0085489519e-05</v>
       </c>
       <c r="C12">
-        <v>-0.0004775142085</v>
+        <v>-0.00039907535352</v>
       </c>
       <c r="D12">
-        <v>-0.00064503713154</v>
+        <v>-0.00055972822088</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>54556.459071</v>
+        <v>54621.523074</v>
       </c>
       <c r="B13">
-        <v>9.2419264802e-05</v>
+        <v>7.9378324153e-05</v>
       </c>
       <c r="C13">
-        <v>-0.000340857494</v>
+        <v>-0.0003450256525</v>
       </c>
       <c r="D13">
-        <v>-0.00046506755519</v>
+        <v>-0.00045891934037</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -575,44 +575,44 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>54522.45907</v>
+        <v>54659.323076</v>
       </c>
       <c r="B16">
-        <v>9.4902169911e-05</v>
+        <v>8.4944580228e-05</v>
       </c>
       <c r="C16">
-        <v>-0.00012528920824</v>
+        <v>-0.00012787065632</v>
       </c>
       <c r="D16">
-        <v>-0.00020841102275</v>
+        <v>-0.00020180424853</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>54621.523074</v>
+        <v>54671.855077</v>
       </c>
       <c r="B17">
-        <v>7.9378324153e-05</v>
+        <v>5.0786623362e-05</v>
       </c>
       <c r="C17">
-        <v>-0.0003450256525</v>
+        <v>-5.8760878125e-05</v>
       </c>
       <c r="D17">
-        <v>-0.00045891934037</v>
+        <v>-0.00011198920517</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>54611.723074</v>
+        <v>54685.255077</v>
       </c>
       <c r="B18">
-        <v>8.0085489519e-05</v>
+        <v>3.5967868687e-05</v>
       </c>
       <c r="C18">
-        <v>-0.00039907535352</v>
+        <v>9.605483696399999e-06</v>
       </c>
       <c r="D18">
-        <v>-0.00055972822088</v>
+        <v>-4.5343526965e-05</v>
       </c>
     </row>
   </sheetData>
